--- a/modified_tables/table_12.xlsx
+++ b/modified_tables/table_12.xlsx
@@ -14,90 +14,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>2018</t>
   </si>
   <si>
     <t>2017</t>
   </si>
   <si>
-    <t>Number of employees, Germany*</t>
-  </si>
-  <si>
-    <t>5,204</t>
-  </si>
-  <si>
-    <t>5,298</t>
-  </si>
-  <si>
-    <t>5,549</t>
-  </si>
-  <si>
-    <t>Users (total)</t>
-  </si>
-  <si>
-    <t>3,562</t>
-  </si>
-  <si>
-    <t>3,643</t>
-  </si>
-  <si>
-    <t>3,627</t>
-  </si>
-  <si>
-    <t>Travel subsidy recipients</t>
-  </si>
-  <si>
-    <t>443</t>
-  </si>
-  <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>Regional travel card users</t>
-  </si>
-  <si>
-    <t>2,842</t>
-  </si>
-  <si>
-    <t>2,616</t>
-  </si>
-  <si>
-    <t>2,917</t>
-  </si>
-  <si>
-    <t>Deutsche Bahn travel card users</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>Public transport users (%)</t>
-  </si>
-  <si>
-    <t>68.45</t>
-  </si>
-  <si>
-    <t>68.79</t>
-  </si>
-  <si>
-    <t>65.36</t>
+    <t>Total business travel (‘000km) 32,039</t>
+  </si>
+  <si>
+    <t>32,766</t>
+  </si>
+  <si>
+    <t>36,644</t>
+  </si>
+  <si>
+    <t>Individual business travel (‘000km per FTE) 6.9</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>Of which by train (%) 38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Of which by air (%) 16</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Of which by private car (%) 2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Of which by company car (%) 40</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Of which by rental car (%) 3</t>
+  </si>
+  <si>
+    <t>The carbon emissions from commuter travel were included for the first time in 2019, based on statistical figures.</t>
+  </si>
+  <si>
+    <t>They amounted to 3,249 tonnes and are based on data supplied by the German Federal Statistical Office for the</t>
+  </si>
+  <si>
+    <t>distribution of commuter traffic and the calculation methods of the VfU.</t>
+  </si>
+  <si>
+    <t>3.3 GRI 303: Water and effluents 2018</t>
+  </si>
+  <si>
+    <t>303-1 Interactions with water as a shared resource</t>
+  </si>
+  <si>
+    <t>DZ BANK AG only uses drinking water provided by regional suppliers. Our water consumption does not have</t>
+  </si>
+  <si>
+    <t>any significant impact on water sources.</t>
+  </si>
+  <si>
+    <t>303-2 Management of water discharge related impacts</t>
+  </si>
+  <si>
+    <t>We generally only produce waste water that is comparable with household effluents. It is not reused or recycled.</t>
+  </si>
+  <si>
+    <t>303-5 Water consumption</t>
+  </si>
+  <si>
+    <t>WATER CONSUMPTION</t>
+  </si>
+  <si>
+    <t>cubic meters (m3) 2019</t>
+  </si>
+  <si>
+    <t>Total water consumption 101,057</t>
+  </si>
+  <si>
+    <t>96,293</t>
+  </si>
+  <si>
+    <t>94,022</t>
+  </si>
+  <si>
+    <t>Individual water consumption (m3 per FTE) 22</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -455,102 +479,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:28">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
+      <c r="Z3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
